--- a/octave_codes/ssb.xlsx
+++ b/octave_codes/ssb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program files\Pycharm Projects\Crack Identification\octave_codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB08504A-484F-4E54-AF0C-FA86B188E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC025A-DC7F-4FB3-B05F-0FD30CE5B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E3D1AA2D-5521-4C78-88C1-D69A5D1661BD}"/>
   </bookViews>
@@ -3394,16 +3394,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3430,16 +3430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>425451</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244474</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3807,7 +3807,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
